--- a/po_analysis_by_asin/B09SWHZ7F7_po_data.xlsx
+++ b/po_analysis_by_asin/B09SWHZ7F7_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,97 +452,369 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45390</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45404</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45411</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45418</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45425</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45432</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45439</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45446</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45453</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45481</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45537</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B47" t="n">
         <v>6</v>
       </c>
     </row>
@@ -557,7 +829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,49 +851,145 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45383</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45413</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45444</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45474</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45536</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B19" t="n">
         <v>6</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09SWHZ7F7_po_data.xlsx
+++ b/po_analysis_by_asin/B09SWHZ7F7_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -845,7 +846,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -991,6 +992,803 @@
       </c>
       <c r="B19" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.241064555832582</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.88500144853277</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-5.279303743595799</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.20605555173696</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-4.738573418130684</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.303374038091</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5.159647122564289</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.55400100876084</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-5.122983693816792</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.04930067289999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-4.255297885698592</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.34098135130529</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-4.150574472275073</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.31932792743271</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-4.451392782584371</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.70894123319413</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-4.321804542456886</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13.50444843221717</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-3.710504407426772</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13.59463288880438</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-3.336997928099318</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14.10793109772424</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-3.224830691526629</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14.10610967667534</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-3.885422268152837</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13.86973087041261</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-3.88379982421427</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14.07965793592481</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-3.830321411224957</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14.51266426752773</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-2.619024426021853</v>
+      </c>
+      <c r="D17" t="n">
+        <v>14.43314591752319</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-3.133095809338097</v>
+      </c>
+      <c r="D18" t="n">
+        <v>15.41617399092681</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-3.609069070069317</v>
+      </c>
+      <c r="D19" t="n">
+        <v>15.0262526857956</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-3.392408365937464</v>
+      </c>
+      <c r="D20" t="n">
+        <v>14.09819702159873</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-3.202228025960757</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15.67122722211109</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.643060311282154</v>
+      </c>
+      <c r="D22" t="n">
+        <v>15.95074155976132</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.288768784886306</v>
+      </c>
+      <c r="D23" t="n">
+        <v>15.42441193804697</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-3.047153937250428</v>
+      </c>
+      <c r="D24" t="n">
+        <v>16.41168292617332</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.970877608680877</v>
+      </c>
+      <c r="D25" t="n">
+        <v>16.18151385377156</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.275565042524093</v>
+      </c>
+      <c r="D26" t="n">
+        <v>16.08033076885601</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.878651328483616</v>
+      </c>
+      <c r="D27" t="n">
+        <v>15.89435564301814</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.395637758983164</v>
+      </c>
+      <c r="D28" t="n">
+        <v>16.76970727080994</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.146359271350792</v>
+      </c>
+      <c r="D29" t="n">
+        <v>16.25034105480453</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.368748534895342</v>
+      </c>
+      <c r="D30" t="n">
+        <v>16.38778308336986</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.97964303843687</v>
+      </c>
+      <c r="D31" t="n">
+        <v>16.37396626206261</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-1.911993395322696</v>
+      </c>
+      <c r="D32" t="n">
+        <v>16.16707095220363</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>7</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-1.565293897200069</v>
+      </c>
+      <c r="D33" t="n">
+        <v>16.65298346869167</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>7</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.286734103755333</v>
+      </c>
+      <c r="D34" t="n">
+        <v>16.48732318981288</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1.904913348094943</v>
+      </c>
+      <c r="D35" t="n">
+        <v>16.31285587753036</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.7733744477293844</v>
+      </c>
+      <c r="D36" t="n">
+        <v>16.97213812942804</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.5399016817845228</v>
+      </c>
+      <c r="D37" t="n">
+        <v>17.99919042609522</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.06907701779345735</v>
+      </c>
+      <c r="D38" t="n">
+        <v>17.69433011342685</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>9</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.08804307294050424</v>
+      </c>
+      <c r="D39" t="n">
+        <v>18.25963753587872</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.5684372820410729</v>
+      </c>
+      <c r="D40" t="n">
+        <v>18.81868522856785</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>9</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.09377849835529364</v>
+      </c>
+      <c r="D41" t="n">
+        <v>18.04596019668685</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.1086722882481971</v>
+      </c>
+      <c r="D42" t="n">
+        <v>18.50621890675455</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.6950842146994221</v>
+      </c>
+      <c r="D43" t="n">
+        <v>17.97808475585292</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>9</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.7042749185506225</v>
+      </c>
+      <c r="D44" t="n">
+        <v>17.76367779022069</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>9</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.3130393590887959</v>
+      </c>
+      <c r="D45" t="n">
+        <v>18.52693475470387</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>10</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-0.2698686961861273</v>
+      </c>
+      <c r="D46" t="n">
+        <v>18.17315823492288</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>10</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.25520199098237</v>
+      </c>
+      <c r="D47" t="n">
+        <v>18.35310099401703</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>10</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.287205102491998</v>
+      </c>
+      <c r="D48" t="n">
+        <v>19.13645774855748</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>10</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.8926048962780404</v>
+      </c>
+      <c r="D49" t="n">
+        <v>19.14573988672929</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>10</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.630386498242182</v>
+      </c>
+      <c r="D50" t="n">
+        <v>19.29853492949341</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>11</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.9343135652180586</v>
+      </c>
+      <c r="D51" t="n">
+        <v>19.66341129676436</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>11</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.215206612480937</v>
+      </c>
+      <c r="D52" t="n">
+        <v>19.81068059492162</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>11</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.922381761388726</v>
+      </c>
+      <c r="D53" t="n">
+        <v>20.23711162706165</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>11</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.508602675324569</v>
+      </c>
+      <c r="D54" t="n">
+        <v>19.77289187258874</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>11</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.098452748284541</v>
+      </c>
+      <c r="D55" t="n">
+        <v>19.74274621743338</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09SWHZ7F7_po_data.xlsx
+++ b/po_analysis_by_asin/B09SWHZ7F7_po_data.xlsx
@@ -1005,7 +1005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1024,16 +1024,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1042,12 +1032,6 @@
       <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>-5.241064555832582</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.88500144853277</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1056,12 +1040,6 @@
       <c r="B3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
-        <v>-5.279303743595799</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.20605555173696</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1070,12 +1048,6 @@
       <c r="B4" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
-        <v>-4.738573418130684</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.303374038091</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1084,12 +1056,6 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <v>-5.159647122564289</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.55400100876084</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1098,12 +1064,6 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
-        <v>-5.122983693816792</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14.04930067289999</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1112,12 +1072,6 @@
       <c r="B7" t="n">
         <v>4</v>
       </c>
-      <c r="C7" t="n">
-        <v>-4.255297885698592</v>
-      </c>
-      <c r="D7" t="n">
-        <v>13.34098135130529</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1126,12 +1080,6 @@
       <c r="B8" t="n">
         <v>5</v>
       </c>
-      <c r="C8" t="n">
-        <v>-4.150574472275073</v>
-      </c>
-      <c r="D8" t="n">
-        <v>14.31932792743271</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1140,12 +1088,6 @@
       <c r="B9" t="n">
         <v>5</v>
       </c>
-      <c r="C9" t="n">
-        <v>-4.451392782584371</v>
-      </c>
-      <c r="D9" t="n">
-        <v>13.70894123319413</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1154,12 +1096,6 @@
       <c r="B10" t="n">
         <v>5</v>
       </c>
-      <c r="C10" t="n">
-        <v>-4.321804542456886</v>
-      </c>
-      <c r="D10" t="n">
-        <v>13.50444843221717</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1168,12 +1104,6 @@
       <c r="B11" t="n">
         <v>5</v>
       </c>
-      <c r="C11" t="n">
-        <v>-3.710504407426772</v>
-      </c>
-      <c r="D11" t="n">
-        <v>13.59463288880438</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1182,12 +1112,6 @@
       <c r="B12" t="n">
         <v>5</v>
       </c>
-      <c r="C12" t="n">
-        <v>-3.336997928099318</v>
-      </c>
-      <c r="D12" t="n">
-        <v>14.10793109772424</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1196,12 +1120,6 @@
       <c r="B13" t="n">
         <v>5</v>
       </c>
-      <c r="C13" t="n">
-        <v>-3.224830691526629</v>
-      </c>
-      <c r="D13" t="n">
-        <v>14.10610967667534</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1210,12 +1128,6 @@
       <c r="B14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" t="n">
-        <v>-3.885422268152837</v>
-      </c>
-      <c r="D14" t="n">
-        <v>13.86973087041261</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1224,12 +1136,6 @@
       <c r="B15" t="n">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
-        <v>-3.88379982421427</v>
-      </c>
-      <c r="D15" t="n">
-        <v>14.07965793592481</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1238,12 +1144,6 @@
       <c r="B16" t="n">
         <v>5</v>
       </c>
-      <c r="C16" t="n">
-        <v>-3.830321411224957</v>
-      </c>
-      <c r="D16" t="n">
-        <v>14.51266426752773</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1252,12 +1152,6 @@
       <c r="B17" t="n">
         <v>6</v>
       </c>
-      <c r="C17" t="n">
-        <v>-2.619024426021853</v>
-      </c>
-      <c r="D17" t="n">
-        <v>14.43314591752319</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1266,12 +1160,6 @@
       <c r="B18" t="n">
         <v>6</v>
       </c>
-      <c r="C18" t="n">
-        <v>-3.133095809338097</v>
-      </c>
-      <c r="D18" t="n">
-        <v>15.41617399092681</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1280,12 +1168,6 @@
       <c r="B19" t="n">
         <v>6</v>
       </c>
-      <c r="C19" t="n">
-        <v>-3.609069070069317</v>
-      </c>
-      <c r="D19" t="n">
-        <v>15.0262526857956</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1294,12 +1176,6 @@
       <c r="B20" t="n">
         <v>6</v>
       </c>
-      <c r="C20" t="n">
-        <v>-3.392408365937464</v>
-      </c>
-      <c r="D20" t="n">
-        <v>14.09819702159873</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1308,12 +1184,6 @@
       <c r="B21" t="n">
         <v>6</v>
       </c>
-      <c r="C21" t="n">
-        <v>-3.202228025960757</v>
-      </c>
-      <c r="D21" t="n">
-        <v>15.67122722211109</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1322,12 +1192,6 @@
       <c r="B22" t="n">
         <v>6</v>
       </c>
-      <c r="C22" t="n">
-        <v>-2.643060311282154</v>
-      </c>
-      <c r="D22" t="n">
-        <v>15.95074155976132</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1336,12 +1200,6 @@
       <c r="B23" t="n">
         <v>6</v>
       </c>
-      <c r="C23" t="n">
-        <v>-2.288768784886306</v>
-      </c>
-      <c r="D23" t="n">
-        <v>15.42441193804697</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1350,12 +1208,6 @@
       <c r="B24" t="n">
         <v>7</v>
       </c>
-      <c r="C24" t="n">
-        <v>-3.047153937250428</v>
-      </c>
-      <c r="D24" t="n">
-        <v>16.41168292617332</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1364,12 +1216,6 @@
       <c r="B25" t="n">
         <v>7</v>
       </c>
-      <c r="C25" t="n">
-        <v>-2.970877608680877</v>
-      </c>
-      <c r="D25" t="n">
-        <v>16.18151385377156</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1378,12 +1224,6 @@
       <c r="B26" t="n">
         <v>7</v>
       </c>
-      <c r="C26" t="n">
-        <v>-2.275565042524093</v>
-      </c>
-      <c r="D26" t="n">
-        <v>16.08033076885601</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1392,12 +1232,6 @@
       <c r="B27" t="n">
         <v>7</v>
       </c>
-      <c r="C27" t="n">
-        <v>-1.878651328483616</v>
-      </c>
-      <c r="D27" t="n">
-        <v>15.89435564301814</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1406,12 +1240,6 @@
       <c r="B28" t="n">
         <v>7</v>
       </c>
-      <c r="C28" t="n">
-        <v>-2.395637758983164</v>
-      </c>
-      <c r="D28" t="n">
-        <v>16.76970727080994</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1420,12 +1248,6 @@
       <c r="B29" t="n">
         <v>7</v>
       </c>
-      <c r="C29" t="n">
-        <v>-2.146359271350792</v>
-      </c>
-      <c r="D29" t="n">
-        <v>16.25034105480453</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1434,12 +1256,6 @@
       <c r="B30" t="n">
         <v>7</v>
       </c>
-      <c r="C30" t="n">
-        <v>-1.368748534895342</v>
-      </c>
-      <c r="D30" t="n">
-        <v>16.38778308336986</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1448,12 +1264,6 @@
       <c r="B31" t="n">
         <v>7</v>
       </c>
-      <c r="C31" t="n">
-        <v>-1.97964303843687</v>
-      </c>
-      <c r="D31" t="n">
-        <v>16.37396626206261</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1462,12 +1272,6 @@
       <c r="B32" t="n">
         <v>7</v>
       </c>
-      <c r="C32" t="n">
-        <v>-1.911993395322696</v>
-      </c>
-      <c r="D32" t="n">
-        <v>16.16707095220363</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1476,12 +1280,6 @@
       <c r="B33" t="n">
         <v>7</v>
       </c>
-      <c r="C33" t="n">
-        <v>-1.565293897200069</v>
-      </c>
-      <c r="D33" t="n">
-        <v>16.65298346869167</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1490,12 +1288,6 @@
       <c r="B34" t="n">
         <v>7</v>
       </c>
-      <c r="C34" t="n">
-        <v>-1.286734103755333</v>
-      </c>
-      <c r="D34" t="n">
-        <v>16.48732318981288</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1504,12 +1296,6 @@
       <c r="B35" t="n">
         <v>8</v>
       </c>
-      <c r="C35" t="n">
-        <v>-1.904913348094943</v>
-      </c>
-      <c r="D35" t="n">
-        <v>16.31285587753036</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1518,12 +1304,6 @@
       <c r="B36" t="n">
         <v>8</v>
       </c>
-      <c r="C36" t="n">
-        <v>-0.7733744477293844</v>
-      </c>
-      <c r="D36" t="n">
-        <v>16.97213812942804</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1532,12 +1312,6 @@
       <c r="B37" t="n">
         <v>9</v>
       </c>
-      <c r="C37" t="n">
-        <v>-0.5399016817845228</v>
-      </c>
-      <c r="D37" t="n">
-        <v>17.99919042609522</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1546,12 +1320,6 @@
       <c r="B38" t="n">
         <v>9</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.06907701779345735</v>
-      </c>
-      <c r="D38" t="n">
-        <v>17.69433011342685</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1560,12 +1328,6 @@
       <c r="B39" t="n">
         <v>9</v>
       </c>
-      <c r="C39" t="n">
-        <v>-0.08804307294050424</v>
-      </c>
-      <c r="D39" t="n">
-        <v>18.25963753587872</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1574,12 +1336,6 @@
       <c r="B40" t="n">
         <v>9</v>
       </c>
-      <c r="C40" t="n">
-        <v>-0.5684372820410729</v>
-      </c>
-      <c r="D40" t="n">
-        <v>18.81868522856785</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1588,12 +1344,6 @@
       <c r="B41" t="n">
         <v>9</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.09377849835529364</v>
-      </c>
-      <c r="D41" t="n">
-        <v>18.04596019668685</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1602,12 +1352,6 @@
       <c r="B42" t="n">
         <v>9</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.1086722882481971</v>
-      </c>
-      <c r="D42" t="n">
-        <v>18.50621890675455</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1616,12 +1360,6 @@
       <c r="B43" t="n">
         <v>9</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.6950842146994221</v>
-      </c>
-      <c r="D43" t="n">
-        <v>17.97808475585292</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1630,12 +1368,6 @@
       <c r="B44" t="n">
         <v>9</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.7042749185506225</v>
-      </c>
-      <c r="D44" t="n">
-        <v>17.76367779022069</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1644,12 +1376,6 @@
       <c r="B45" t="n">
         <v>9</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.3130393590887959</v>
-      </c>
-      <c r="D45" t="n">
-        <v>18.52693475470387</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1658,12 +1384,6 @@
       <c r="B46" t="n">
         <v>10</v>
       </c>
-      <c r="C46" t="n">
-        <v>-0.2698686961861273</v>
-      </c>
-      <c r="D46" t="n">
-        <v>18.17315823492288</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1672,12 +1392,6 @@
       <c r="B47" t="n">
         <v>10</v>
       </c>
-      <c r="C47" t="n">
-        <v>1.25520199098237</v>
-      </c>
-      <c r="D47" t="n">
-        <v>18.35310099401703</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1686,12 +1400,6 @@
       <c r="B48" t="n">
         <v>10</v>
       </c>
-      <c r="C48" t="n">
-        <v>1.287205102491998</v>
-      </c>
-      <c r="D48" t="n">
-        <v>19.13645774855748</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1700,12 +1408,6 @@
       <c r="B49" t="n">
         <v>10</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.8926048962780404</v>
-      </c>
-      <c r="D49" t="n">
-        <v>19.14573988672929</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1714,12 +1416,6 @@
       <c r="B50" t="n">
         <v>10</v>
       </c>
-      <c r="C50" t="n">
-        <v>1.630386498242182</v>
-      </c>
-      <c r="D50" t="n">
-        <v>19.29853492949341</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1728,12 +1424,6 @@
       <c r="B51" t="n">
         <v>11</v>
       </c>
-      <c r="C51" t="n">
-        <v>0.9343135652180586</v>
-      </c>
-      <c r="D51" t="n">
-        <v>19.66341129676436</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1742,12 +1432,6 @@
       <c r="B52" t="n">
         <v>11</v>
       </c>
-      <c r="C52" t="n">
-        <v>1.215206612480937</v>
-      </c>
-      <c r="D52" t="n">
-        <v>19.81068059492162</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1756,12 +1440,6 @@
       <c r="B53" t="n">
         <v>11</v>
       </c>
-      <c r="C53" t="n">
-        <v>1.922381761388726</v>
-      </c>
-      <c r="D53" t="n">
-        <v>20.23711162706165</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1770,12 +1448,6 @@
       <c r="B54" t="n">
         <v>11</v>
       </c>
-      <c r="C54" t="n">
-        <v>1.508602675324569</v>
-      </c>
-      <c r="D54" t="n">
-        <v>19.77289187258874</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1783,12 +1455,6 @@
       </c>
       <c r="B55" t="n">
         <v>11</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2.098452748284541</v>
-      </c>
-      <c r="D55" t="n">
-        <v>19.74274621743338</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09SWHZ7F7_po_data.xlsx
+++ b/po_analysis_by_asin/B09SWHZ7F7_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -819,6 +819,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -830,7 +838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,6 +1002,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1005,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,7 +1062,7 @@
         <v>44955.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1054,7 +1070,7 @@
         <v>44962.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1078,7 @@
         <v>44969.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1070,7 +1086,7 @@
         <v>44976.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1134,7 +1150,7 @@
         <v>45067.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1158,7 @@
         <v>45074.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1206,7 +1222,7 @@
         <v>45179.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1294,7 +1310,7 @@
         <v>45277.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1302,7 +1318,7 @@
         <v>45298.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1310,7 +1326,7 @@
         <v>45396.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -1318,7 +1334,7 @@
         <v>45410.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1382,7 +1398,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -1395,31 +1411,31 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B51" t="n">
         <v>11</v>
@@ -1427,7 +1443,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B52" t="n">
         <v>11</v>
@@ -1435,7 +1451,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B53" t="n">
         <v>11</v>
@@ -1443,7 +1459,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45592.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B54" t="n">
         <v>11</v>
@@ -1451,9 +1467,17 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45599.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B55" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B56" t="n">
         <v>11</v>
       </c>
     </row>
